--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_16-43.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_16-43.xlsx
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>FLUREST N 20 TABS</t>
+  </si>
+  <si>
+    <t>4:1</t>
   </si>
   <si>
     <t>GABAVERONA 300MG CAPS</t>
@@ -1441,17 +1447,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1459,7 +1465,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1467,17 +1473,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1485,7 +1491,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1493,13 +1499,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1511,7 +1517,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1519,13 +1525,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1537,7 +1543,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1545,17 +1551,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1571,17 +1577,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1589,7 +1595,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1597,17 +1603,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1615,7 +1621,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1623,17 +1629,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1649,17 +1655,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1667,7 +1673,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1675,17 +1681,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1693,7 +1699,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1701,17 +1707,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1719,7 +1725,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1727,13 +1733,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1745,7 +1751,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1753,13 +1759,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1771,7 +1777,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1779,17 +1785,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1805,17 +1811,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1823,7 +1829,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1831,13 +1837,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1849,7 +1855,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1857,17 +1863,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1875,7 +1881,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1883,13 +1889,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1909,17 +1915,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1927,7 +1933,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1941,7 +1947,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1953,7 +1959,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1961,17 +1967,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>20.399999999999999</v>
+        <v>52</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1987,17 +1993,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>23</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2005,7 +2011,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2013,17 +2019,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2039,13 +2045,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>149.5</v>
+        <v>35</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2057,7 +2063,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2065,17 +2071,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>80</v>
+        <v>149.5</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2083,7 +2089,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2091,17 +2097,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2109,7 +2115,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2117,17 +2123,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2135,7 +2141,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2143,17 +2149,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2161,7 +2167,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2169,13 +2175,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2187,7 +2193,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2195,13 +2201,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2213,7 +2219,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2227,7 +2233,7 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2239,7 +2245,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2247,17 +2253,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>66.640000000000001</v>
+        <v>56</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2265,7 +2271,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2273,17 +2279,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>34</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2299,13 +2305,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>-375</v>
+        <v>34</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2317,7 +2323,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2325,17 +2331,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>14</v>
+        <v>-375</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2343,7 +2349,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2357,11 +2363,11 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2369,7 +2375,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2377,17 +2383,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>13.880000000000001</v>
+        <v>40</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2395,7 +2401,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2403,17 +2409,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>2</v>
+        <v>13.880000000000001</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>9</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2421,7 +2427,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2429,13 +2435,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>188.09999999999999</v>
+        <v>2</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2447,7 +2453,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2455,17 +2461,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>36</v>
+        <v>188.09999999999999</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2473,7 +2479,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2481,17 +2487,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2499,7 +2505,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2507,13 +2513,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2533,13 +2539,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2551,7 +2557,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2559,13 +2565,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2577,7 +2583,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2585,13 +2591,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2603,7 +2609,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2611,13 +2617,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2629,7 +2635,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2637,13 +2643,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2655,7 +2661,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2663,13 +2669,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2677,37 +2683,63 @@
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
-      <c r="K73" s="10">
-        <v>2812.5599999999999</v>
-      </c>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-    </row>
-    <row r="74" ht="17.25" customHeight="1">
-      <c t="s" r="A74" s="11">
+      <c r="A73" s="6">
+        <v>70</v>
+      </c>
+      <c t="s" r="B73" s="7">
         <v>98</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c t="s" r="F74" s="12">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c t="s" r="H73" s="8">
         <v>99</v>
       </c>
-      <c r="G74" s="12"/>
-      <c r="H74" s="13"/>
-      <c t="s" r="I74" s="14">
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="9">
+        <v>45</v>
+      </c>
+      <c r="M73" s="9"/>
+      <c t="s" r="N73" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="K74" s="10">
+        <v>2828.5599999999999</v>
+      </c>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="11">
         <v>100</v>
       </c>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c t="s" r="F75" s="12">
+        <v>101</v>
+      </c>
+      <c r="G75" s="12"/>
+      <c r="H75" s="13"/>
+      <c t="s" r="I75" s="14">
+        <v>102</v>
+      </c>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="218">
+  <mergeCells count="221">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2922,10 +2954,13 @@
     <mergeCell ref="B72:G72"/>
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="I74:N74"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="I75:N75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
